--- a/data/trans_orig/P6703-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Clase-trans_orig.xlsx
@@ -4130,7 +4130,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -9146,7 +9146,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -14162,7 +14162,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
